--- a/spec/pandas_test.xlsx
+++ b/spec/pandas_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,12 +610,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -638,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/spec/pandas_test.xlsx
+++ b/spec/pandas_test.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="param2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>姓名</t>
   </si>
@@ -85,13 +85,65 @@
   </si>
   <si>
     <t>成都</t>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴转多云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +157,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,12 +182,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -442,163 +523,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>22</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>16845624569</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>15552365698</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>79</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>18912365485</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>15678954136</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>56</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>19045612589</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>68</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>18877165134</v>
       </c>
     </row>
@@ -610,105 +691,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
